--- a/biology/Médecine/Mélange_équimolaire_oxygène-protoxyde_d'azote/Mélange_équimolaire_oxygène-protoxyde_d'azote.xlsx
+++ b/biology/Médecine/Mélange_équimolaire_oxygène-protoxyde_d'azote/Mélange_équimolaire_oxygène-protoxyde_d'azote.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9lange_%C3%A9quimolaire_oxyg%C3%A8ne-protoxyde_d%27azote</t>
+          <t>Mélange_équimolaire_oxygène-protoxyde_d'azote</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mélange équimolaire dioxygène-protoxyde d'azote 50 % / 50 % (souvent abrégé en MEOPA) est un mélange gazeux, à concentrations fixes, utilisé en analgésie. La substance active de ce médicament est le protoxyde d'azote, gaz incolore, non irritant, d'odeur faible. Peu soluble dans le sang, il procure un effet rapide après trois minutes d'inhalation, cet effet est rapidement réversible en 5 minutes après l'arrêt. La concentration en protoxyde d'azote entraînant un sommeil anesthésique (MAC) est de 104 %, impossible à atteindre en pratique courante (ce chiffre a été évalué en conditions d'hyperbarie (= surpression)). Le protoxyde d'azote, découvert en 1772 par le chimiste et pasteur anglais Joseph Priestley, a vu ses effets relaxant et analgésiant démontrés de façon médicale encadrée aux États-Unis en 1844 par le dentiste Horace Wells.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9lange_%C3%A9quimolaire_oxyg%C3%A8ne-protoxyde_d%27azote</t>
+          <t>Mélange_équimolaire_oxygène-protoxyde_d'azote</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le MEOPA possède une triple action :
 anxiolytique (diminution de l'anxiété) ;
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9lange_%C3%A9quimolaire_oxyg%C3%A8ne-protoxyde_d%27azote</t>
+          <t>Mélange_équimolaire_oxygène-protoxyde_d'azote</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En raison de sa faible puissance, le MEOPA ne doit être utilisé que pour des gestes peu douloureux (EVA de 4 à 6), en association si besoin avec une anesthésie locale, patch d'EMLA ou sous cutané de Xylocaïne.
 La présentation en mélange équimoléculaire avec 50 % de dioxygène, O2, supprime pratiquement le risque d'hypoxie et améliore la sécurité d'administration au prix d'une action analgésiante comparable à une injection sous-cutanée de 10 mg de morphine.
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9lange_%C3%A9quimolaire_oxyg%C3%A8ne-protoxyde_d%27azote</t>
+          <t>Mélange_équimolaire_oxygène-protoxyde_d'azote</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,10 +600,12 @@
           <t>Autres effets</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cardiovasculaire : dépression modérée de la contractilité du myocarde.
-Oxydant de la vitamine B12 lors d'expositions prolongées (maximum 1 h par acte) et répétées (au-delà de 15 fois, au quotidien). Une supplémentation orale en vitamine B12 se discute. Cependant cette supplémentation restera sans effet si l'administration de protoxyde d'azote se poursuit car la vitamine B12 ingérée s'en trouvera inactivée[1]
+Oxydant de la vitamine B12 lors d'expositions prolongées (maximum 1 h par acte) et répétées (au-delà de 15 fois, au quotidien). Une supplémentation orale en vitamine B12 se discute. Cependant cette supplémentation restera sans effet si l'administration de protoxyde d'azote se poursuit car la vitamine B12 ingérée s'en trouvera inactivée
 Anomalies transitoires de la spermatogenèse décrites en modèle animal, lors d'expositions pendant plusieurs semaines, non retrouvées chez l'homme.</t>
         </is>
       </c>
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M%C3%A9lange_%C3%A9quimolaire_oxyg%C3%A8ne-protoxyde_d%27azote</t>
+          <t>Mélange_équimolaire_oxygène-protoxyde_d'azote</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +634,9 @@
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le protoxyde d'azote diffuse dans les cavités closes et en augmente le volume ou la pression.
 Il est donc contre-indiqué : 
@@ -640,7 +660,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>M%C3%A9lange_%C3%A9quimolaire_oxyg%C3%A8ne-protoxyde_d%27azote</t>
+          <t>Mélange_équimolaire_oxygène-protoxyde_d'azote</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -658,7 +678,9 @@
           <t>Santé des personnels médicaux</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n'a pas été mis en évidence d'effets secondaires chez le personnel hospitalier dans le cadre d'une exposition intermittente. 
 Dans le montage du kit d'administration, on préférera la valve à la demande type « RobertShaw » et on n'oubliera pas de poser le tuyau de recueil des gaz expirés.
@@ -672,7 +694,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>M%C3%A9lange_%C3%A9quimolaire_oxyg%C3%A8ne-protoxyde_d%27azote</t>
+          <t>Mélange_équimolaire_oxygène-protoxyde_d'azote</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -690,7 +712,9 @@
           <t>Pollution</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le protoxyde d'azote est un puissant gaz à effet de serre, « persistant » environ 120 ans dans l'atmosphère, car sa destruction naturelle dans l'atmosphère est lente. 
 En tant que gaz médical, le N2O contribue pour environ 1 % des effets climatiques des produits azotés (comme les engrais azotés, sur-utilisés).
